--- a/TCS - Full Stack MEAN Developer - Schedule - New.xlsx
+++ b/TCS - Full Stack MEAN Developer - Schedule - New.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91990\Desktop\TCS MEAN Stack Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91990\Desktop\TCS MEAN Stack Training\GitDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
@@ -1626,11 +1626,98 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1638,21 +1725,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1674,93 +1746,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1770,7 +1789,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1797,36 +1815,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,12 +1841,53 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1869,54 +1905,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1927,15 +1936,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2178,40 +2178,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="117"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="104"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
@@ -2239,10 +2239,10 @@
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="10">
         <v>3</v>
       </c>
@@ -2270,10 +2270,10 @@
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="108"/>
+      <c r="C5" s="117"/>
       <c r="D5" s="10">
         <v>17</v>
       </c>
@@ -2298,17 +2298,17 @@
       <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:23" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2355,789 +2355,789 @@
       <c r="W7" s="35"/>
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="99" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="112">
+      <c r="D8" s="93">
         <v>3.5</v>
       </c>
-      <c r="E8" s="112">
+      <c r="E8" s="93">
         <v>1</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="94">
         <v>44260</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="91">
+      <c r="I8" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="100"/>
     </row>
     <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="106" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="106">
         <v>3.5</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="106">
         <v>2</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="125">
         <v>44263</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="I14" s="92"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="92"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="92"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="92"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="100"/>
       <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="92"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="100"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88">
+      <c r="D19" s="106"/>
+      <c r="E19" s="106">
         <v>3</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="106">
         <v>44263</v>
       </c>
-      <c r="G19" s="88" t="s">
+      <c r="G19" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="100"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="106">
         <v>3.5</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="106">
         <v>3</v>
       </c>
-      <c r="F20" s="101">
+      <c r="F20" s="125">
         <v>44264</v>
       </c>
-      <c r="G20" s="102" t="s">
+      <c r="G20" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="126"/>
-      <c r="I20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="92"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="92"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="92"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="92"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="92"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="92"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="92"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="92"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="104" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="93">
         <v>3.5</v>
       </c>
-      <c r="E29" s="112">
+      <c r="E29" s="93">
         <v>4</v>
       </c>
-      <c r="F29" s="113">
+      <c r="F29" s="94">
         <v>44265</v>
       </c>
-      <c r="G29" s="114" t="s">
+      <c r="G29" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="126"/>
-      <c r="I29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="1:9" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="100"/>
     </row>
     <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="87">
+      <c r="D34" s="91">
         <v>3.5</v>
       </c>
-      <c r="E34" s="87">
+      <c r="E34" s="91">
         <v>5</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="90">
         <v>44266</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="126"/>
-      <c r="I34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87">
+      <c r="D35" s="91"/>
+      <c r="E35" s="91">
         <v>5</v>
       </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="92"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="100"/>
     </row>
     <row r="36" spans="1:9" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="92"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:9" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87">
+      <c r="D37" s="91"/>
+      <c r="E37" s="91">
         <v>6</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87" t="s">
+      <c r="F37" s="91"/>
+      <c r="G37" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="H37" s="126"/>
-      <c r="I37" s="118"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="105"/>
     </row>
     <row r="38" spans="1:9" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="91">
         <v>3.5</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="91">
         <v>6</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F38" s="90">
         <v>44267</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="126"/>
-      <c r="I38" s="123">
+      <c r="H38" s="92"/>
+      <c r="I38" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="124"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="88"/>
     </row>
     <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="124"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="88"/>
     </row>
     <row r="41" spans="1:9" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
-      <c r="B41" s="92"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="124"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="88"/>
     </row>
     <row r="42" spans="1:9" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="124"/>
+      <c r="I42" s="88"/>
     </row>
     <row r="43" spans="1:9" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="99" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="91">
         <v>3.5</v>
       </c>
-      <c r="E43" s="87">
+      <c r="E43" s="91">
         <v>7</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F43" s="90">
         <v>44270</v>
       </c>
-      <c r="G43" s="87" t="s">
+      <c r="G43" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="124"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="120"/>
       <c r="C44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87">
+      <c r="D44" s="91"/>
+      <c r="E44" s="91">
         <v>7</v>
       </c>
-      <c r="F44" s="87">
+      <c r="F44" s="91">
         <v>44267</v>
       </c>
-      <c r="G44" s="87" t="s">
+      <c r="G44" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="124"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="120"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="124"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="88"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="124"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="88"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="99"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="124"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
-      <c r="B48" s="96"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="124"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="88"/>
     </row>
     <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="124"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="88"/>
     </row>
     <row r="50" spans="1:11" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="124"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="88"/>
     </row>
     <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="123"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="87">
+      <c r="D51" s="91">
         <v>3.5</v>
       </c>
-      <c r="E51" s="87">
+      <c r="E51" s="91">
         <v>8</v>
       </c>
-      <c r="F51" s="122">
+      <c r="F51" s="90">
         <v>44271</v>
       </c>
-      <c r="G51" s="87" t="s">
+      <c r="G51" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="87"/>
-      <c r="I51" s="124"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="88"/>
     </row>
     <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99"/>
-      <c r="B52" s="96"/>
+      <c r="A52" s="123"/>
+      <c r="B52" s="120"/>
       <c r="C52" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="124"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="88"/>
     </row>
     <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
-      <c r="B53" s="96"/>
+      <c r="A53" s="123"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="124"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="88"/>
     </row>
     <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
-      <c r="B54" s="96"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="120"/>
       <c r="C54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="124"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="55" spans="1:11" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
-      <c r="B55" s="96"/>
+      <c r="A55" s="123"/>
+      <c r="B55" s="120"/>
       <c r="C55" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="124"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="88"/>
     </row>
     <row r="56" spans="1:11" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
-      <c r="B56" s="96"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="120"/>
       <c r="C56" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="124"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="88"/>
     </row>
     <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
-      <c r="B57" s="97"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="121"/>
       <c r="C57" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="124"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="88"/>
     </row>
     <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="90"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="21" t="s">
         <v>151</v>
       </c>
@@ -3150,12 +3150,48 @@
       <c r="F58" s="23"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
-      <c r="I58" s="125"/>
+      <c r="I58" s="89"/>
       <c r="J58" s="36"/>
       <c r="K58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B29:B42"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="A43:A57"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I8:I37"/>
+    <mergeCell ref="A14:A28"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
     <mergeCell ref="I38:I58"/>
     <mergeCell ref="F38:F42"/>
     <mergeCell ref="G38:G42"/>
@@ -3172,42 +3208,6 @@
     <mergeCell ref="F29:F33"/>
     <mergeCell ref="F51:F57"/>
     <mergeCell ref="G51:G57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="I8:I37"/>
-    <mergeCell ref="A14:A28"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="B29:B42"/>
-    <mergeCell ref="A29:A42"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="A43:A57"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="G20:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3221,8 +3221,8 @@
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3238,40 +3238,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3300,10 +3300,10 @@
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -3331,10 +3331,10 @@
       <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="151"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -3362,10 +3362,10 @@
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="151"/>
+      <c r="C6" s="128"/>
       <c r="D6" s="10">
         <v>3</v>
       </c>
@@ -3393,10 +3393,10 @@
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="148"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="10">
         <v>4</v>
       </c>
@@ -3421,17 +3421,17 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3479,692 +3479,692 @@
       <c r="X9" s="8"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="139" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="139">
         <v>3.5</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="139">
         <v>10</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="94">
         <v>44273</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="129">
+      <c r="I10" s="130">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="130"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="131"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="130"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="131"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="143"/>
-      <c r="B13" s="133"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="130"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="131"/>
     </row>
     <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="143"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="130"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="131"/>
     </row>
     <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="133"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="130"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="131"/>
     </row>
     <row r="16" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="133"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="95" t="s">
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="131"/>
+      <c r="I16" s="132"/>
     </row>
     <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
-      <c r="B17" s="133"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="93">
         <v>3.5</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="93">
         <v>11</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="94">
         <v>44274</v>
       </c>
-      <c r="G17" s="114" t="s">
+      <c r="G17" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="96"/>
-      <c r="I17" s="129">
+      <c r="H17" s="120"/>
+      <c r="I17" s="130">
         <v>3</v>
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="143"/>
-      <c r="B18" s="133"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="130"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="131"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="130"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="130"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="139" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="87">
         <v>3.5</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E21" s="87">
         <v>12</v>
       </c>
-      <c r="F21" s="127">
+      <c r="F21" s="133">
         <v>44277</v>
       </c>
-      <c r="G21" s="123" t="s">
+      <c r="G21" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="97"/>
-      <c r="I21" s="130"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
-      <c r="B22" s="133"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124">
+      <c r="D22" s="88"/>
+      <c r="E22" s="88">
         <v>12</v>
       </c>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124" t="s">
+      <c r="F22" s="88"/>
+      <c r="G22" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="153" t="s">
+      <c r="H22" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="130"/>
+      <c r="I22" s="131"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="133"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="130"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="131"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="135"/>
-      <c r="B24" s="133"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="130"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="131"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="135"/>
-      <c r="B25" s="133"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125">
+      <c r="D25" s="89"/>
+      <c r="E25" s="89">
         <v>13</v>
       </c>
-      <c r="F25" s="125">
+      <c r="F25" s="89">
         <v>44277</v>
       </c>
-      <c r="G25" s="125" t="s">
+      <c r="G25" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="154"/>
-      <c r="I25" s="130"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="131"/>
     </row>
     <row r="26" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="135"/>
-      <c r="B26" s="133"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="87">
         <v>3.5</v>
       </c>
-      <c r="E26" s="123">
+      <c r="E26" s="87">
         <v>13</v>
       </c>
-      <c r="F26" s="127">
+      <c r="F26" s="133">
         <v>44278</v>
       </c>
-      <c r="G26" s="123" t="s">
+      <c r="G26" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="154"/>
-      <c r="I26" s="130"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="131"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="133"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124">
+      <c r="D27" s="88"/>
+      <c r="E27" s="88">
         <v>13</v>
       </c>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124" t="s">
+      <c r="F27" s="88"/>
+      <c r="G27" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="154"/>
-      <c r="I27" s="130"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="135"/>
-      <c r="B28" s="133"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124">
+      <c r="D28" s="88"/>
+      <c r="E28" s="88">
         <v>13</v>
       </c>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124" t="s">
+      <c r="F28" s="88"/>
+      <c r="G28" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="154"/>
-      <c r="I28" s="130"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="131"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="135"/>
-      <c r="B29" s="133"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="130"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="131"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="135"/>
-      <c r="B30" s="133"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="140"/>
       <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125">
+      <c r="D30" s="89"/>
+      <c r="E30" s="89">
         <v>14</v>
       </c>
-      <c r="F30" s="125">
+      <c r="F30" s="89">
         <v>44278</v>
       </c>
-      <c r="G30" s="125" t="s">
+      <c r="G30" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="154"/>
-      <c r="I30" s="130"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="131"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="135"/>
-      <c r="B31" s="133"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="140"/>
       <c r="C31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="87">
         <v>3.5</v>
       </c>
-      <c r="E31" s="123">
+      <c r="E31" s="87">
         <v>14</v>
       </c>
-      <c r="F31" s="127">
+      <c r="F31" s="133">
         <v>44279</v>
       </c>
-      <c r="G31" s="123" t="s">
+      <c r="G31" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="154"/>
-      <c r="I31" s="130"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="135"/>
-      <c r="B32" s="133"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124">
+      <c r="D32" s="88"/>
+      <c r="E32" s="88">
         <v>14</v>
       </c>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124" t="s">
+      <c r="F32" s="88"/>
+      <c r="G32" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="155"/>
-      <c r="I32" s="130"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="131"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="135"/>
-      <c r="B33" s="133"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88">
         <v>14</v>
       </c>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124" t="s">
+      <c r="F33" s="88"/>
+      <c r="G33" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="153" t="s">
+      <c r="H33" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="130"/>
+      <c r="I33" s="131"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="135"/>
-      <c r="B34" s="133"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="130"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="131"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="133"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="130"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="131"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="135"/>
-      <c r="B36" s="133"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="87">
         <v>3.5</v>
       </c>
-      <c r="E36" s="123">
+      <c r="E36" s="87">
         <v>15</v>
       </c>
-      <c r="F36" s="127">
+      <c r="F36" s="133">
         <v>44280</v>
       </c>
-      <c r="G36" s="123" t="s">
+      <c r="G36" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="154"/>
-      <c r="I36" s="130"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="131"/>
     </row>
     <row r="37" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="135"/>
-      <c r="B37" s="133"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124">
+      <c r="D37" s="88"/>
+      <c r="E37" s="88">
         <v>15</v>
       </c>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124" t="s">
+      <c r="F37" s="88"/>
+      <c r="G37" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="154"/>
-      <c r="I37" s="130"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="131"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="139" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124">
+      <c r="D38" s="88"/>
+      <c r="E38" s="88">
         <v>15</v>
       </c>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124" t="s">
+      <c r="F38" s="88"/>
+      <c r="G38" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="154"/>
-      <c r="I38" s="131"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="132"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="135"/>
-      <c r="B39" s="133"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125">
+      <c r="D39" s="89"/>
+      <c r="E39" s="89">
         <v>16</v>
       </c>
-      <c r="F39" s="125">
+      <c r="F39" s="89">
         <v>44280</v>
       </c>
-      <c r="G39" s="125" t="s">
+      <c r="G39" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="H39" s="154"/>
-      <c r="I39" s="129">
+      <c r="H39" s="135"/>
+      <c r="I39" s="130">
         <v>4</v>
       </c>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="135"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="140"/>
       <c r="C40" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="91">
+      <c r="D40" s="104">
         <v>3.5</v>
       </c>
-      <c r="E40" s="91">
+      <c r="E40" s="104">
         <v>16</v>
       </c>
-      <c r="F40" s="128">
+      <c r="F40" s="156">
         <v>44281</v>
       </c>
-      <c r="G40" s="129" t="s">
+      <c r="G40" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="H40" s="154"/>
-      <c r="I40" s="130"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="131"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
     </row>
     <row r="41" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="135"/>
-      <c r="B41" s="133"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="140"/>
       <c r="C41" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="130"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="131"/>
     </row>
     <row r="42" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="135"/>
-      <c r="B42" s="133"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92">
+      <c r="D42" s="100"/>
+      <c r="E42" s="100">
         <v>16</v>
       </c>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92" t="s">
+      <c r="F42" s="100"/>
+      <c r="G42" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="154"/>
-      <c r="I42" s="130"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="131"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
     </row>
     <row r="43" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="135"/>
-      <c r="B43" s="133"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="140"/>
       <c r="C43" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="130"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="131"/>
     </row>
     <row r="44" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="135"/>
-      <c r="B44" s="133"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="91">
+      <c r="D44" s="104">
         <v>3.5</v>
       </c>
-      <c r="E44" s="91">
+      <c r="E44" s="104">
         <v>17</v>
       </c>
-      <c r="F44" s="128">
+      <c r="F44" s="156">
         <v>44284</v>
       </c>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="H44" s="154"/>
-      <c r="I44" s="130"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="131"/>
     </row>
     <row r="45" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="135"/>
-      <c r="B45" s="133"/>
+      <c r="A45" s="138"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92">
+      <c r="D45" s="100"/>
+      <c r="E45" s="100">
         <v>17</v>
       </c>
-      <c r="F45" s="92">
+      <c r="F45" s="100">
         <v>44281</v>
       </c>
-      <c r="G45" s="92" t="s">
+      <c r="G45" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="H45" s="154"/>
-      <c r="I45" s="130"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="131"/>
     </row>
     <row r="46" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="135"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="130"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="131"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
     </row>
     <row r="47" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="135"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="130"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="131"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="152" t="s">
+      <c r="A48" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="152"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="21" t="s">
         <v>193</v>
       </c>
@@ -4177,15 +4177,15 @@
       <c r="F48" s="23"/>
       <c r="G48" s="22"/>
       <c r="H48" s="47"/>
-      <c r="I48" s="131"/>
+      <c r="I48" s="132"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="152" t="s">
+      <c r="A50" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="B50" s="152"/>
+      <c r="B50" s="129"/>
       <c r="C50" s="71" t="s">
         <v>214</v>
       </c>
@@ -4209,6 +4209,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="B21:B37"/>
+    <mergeCell ref="A21:A37"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="I17:I38"/>
@@ -4225,45 +4264,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A38:A47"/>
     <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B21:B37"/>
-    <mergeCell ref="A21:A37"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I10:I16"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4292,40 +4292,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:24" s="37" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:24" s="37" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
@@ -4354,18 +4354,18 @@
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="86">
         <v>2</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
@@ -4387,10 +4387,10 @@
       <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="148"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -4415,17 +4415,17 @@
       <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:24" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:24" s="31" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4473,822 +4473,822 @@
       <c r="X7" s="35"/>
     </row>
     <row r="8" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="161" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="158">
+      <c r="D8" s="166">
         <v>3.5</v>
       </c>
-      <c r="E8" s="158">
+      <c r="E8" s="166">
         <v>18</v>
       </c>
-      <c r="F8" s="167">
+      <c r="F8" s="168">
         <v>44286</v>
       </c>
-      <c r="G8" s="157" t="s">
+      <c r="G8" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="126" t="s">
+      <c r="H8" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="166">
+      <c r="I8" s="165">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="158"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="166"/>
     </row>
     <row r="10" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="161"/>
-      <c r="B10" s="163"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="158"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="166"/>
     </row>
     <row r="11" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="161"/>
-      <c r="B11" s="163"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="158"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="166"/>
     </row>
     <row r="12" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="158"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="166"/>
     </row>
     <row r="13" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158">
+      <c r="D13" s="166"/>
+      <c r="E13" s="166">
         <v>19</v>
       </c>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158" t="s">
+      <c r="F13" s="166"/>
+      <c r="G13" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="158"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="166"/>
     </row>
     <row r="14" spans="1:24" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159">
+      <c r="D14" s="167"/>
+      <c r="E14" s="167">
         <v>17</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="158"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="166"/>
     </row>
     <row r="15" spans="1:24" s="37" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="161"/>
-      <c r="B15" s="163"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="104">
         <v>3.5</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="104">
         <v>19</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="156">
         <v>44287</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="126"/>
-      <c r="I15" s="158"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="166"/>
     </row>
     <row r="16" spans="1:24" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="93" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92">
+      <c r="D16" s="100"/>
+      <c r="E16" s="100">
         <v>20</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="132" t="s">
+      <c r="H16" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="158"/>
+      <c r="I16" s="166"/>
     </row>
     <row r="17" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="159"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="167"/>
     </row>
     <row r="18" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="168"/>
-      <c r="B18" s="168"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="93">
         <v>3.5</v>
       </c>
-      <c r="E18" s="112">
+      <c r="E18" s="93">
         <v>20</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="94">
         <v>44288</v>
       </c>
-      <c r="G18" s="112" t="s">
+      <c r="G18" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="91">
+      <c r="H18" s="139"/>
+      <c r="I18" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="168"/>
-      <c r="B19" s="168"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="168"/>
-      <c r="B20" s="168"/>
+      <c r="A20" s="158"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="1:11" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="168"/>
-      <c r="B21" s="168"/>
+      <c r="A21" s="158"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="112">
+      <c r="D21" s="93">
         <v>3.5</v>
       </c>
-      <c r="E21" s="112">
+      <c r="E21" s="93">
         <v>21</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="94">
         <v>44291</v>
       </c>
-      <c r="G21" s="114" t="s">
+      <c r="G21" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="92"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="168"/>
-      <c r="B22" s="168"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112">
+      <c r="D22" s="93"/>
+      <c r="E22" s="93">
         <v>21</v>
       </c>
-      <c r="F22" s="112">
+      <c r="F22" s="93">
         <v>44291</v>
       </c>
-      <c r="G22" s="112" t="s">
+      <c r="G22" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="92"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="168"/>
-      <c r="B23" s="168"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112">
+      <c r="D23" s="93"/>
+      <c r="E23" s="93">
         <v>22</v>
       </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112" t="s">
+      <c r="F23" s="93"/>
+      <c r="G23" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="92"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="168"/>
-      <c r="B24" s="168"/>
+      <c r="A24" s="158"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="93">
         <v>3.5</v>
       </c>
-      <c r="E24" s="112">
+      <c r="E24" s="93">
         <v>22</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="94">
         <v>44292</v>
       </c>
-      <c r="G24" s="114" t="s">
+      <c r="G24" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="132"/>
-      <c r="I24" s="92"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="168"/>
-      <c r="B25" s="168"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112">
+      <c r="D25" s="93"/>
+      <c r="E25" s="93">
         <v>23</v>
       </c>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112" t="s">
+      <c r="F25" s="93"/>
+      <c r="G25" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="I25" s="92"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="168"/>
-      <c r="B26" s="168"/>
+      <c r="A26" s="158"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93">
         <v>23</v>
       </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="168"/>
-      <c r="B27" s="168"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="93">
         <v>3.5</v>
       </c>
-      <c r="E27" s="112">
+      <c r="E27" s="93">
         <v>23</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="94">
         <v>44293</v>
       </c>
-      <c r="G27" s="114" t="s">
+      <c r="G27" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="112"/>
-      <c r="I27" s="92"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="100"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="93" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93">
         <v>24</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112" t="s">
+      <c r="F28" s="93"/>
+      <c r="G28" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="92"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="156"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="168"/>
-      <c r="B30" s="168"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="112">
+      <c r="D30" s="93">
         <v>3.5</v>
       </c>
-      <c r="E30" s="112">
+      <c r="E30" s="93">
         <v>24</v>
       </c>
-      <c r="F30" s="113">
+      <c r="F30" s="94">
         <v>44294</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="92"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="168"/>
-      <c r="B31" s="168"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112">
+      <c r="D31" s="93"/>
+      <c r="E31" s="93">
         <v>20</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="168"/>
-      <c r="B32" s="168"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="168"/>
-      <c r="B33" s="168"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="168"/>
-      <c r="B34" s="168"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="112">
+      <c r="D34" s="93">
         <v>3.5</v>
       </c>
-      <c r="E34" s="112">
+      <c r="E34" s="93">
         <v>25</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="94">
         <v>44295</v>
       </c>
-      <c r="G34" s="112" t="s">
+      <c r="G34" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="92">
+      <c r="H34" s="93"/>
+      <c r="I34" s="100">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="168"/>
-      <c r="B35" s="168"/>
+      <c r="A35" s="158"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="100"/>
     </row>
     <row r="36" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="168"/>
-      <c r="B36" s="168"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="92"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="93" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="112">
+      <c r="D37" s="93">
         <v>3.5</v>
       </c>
-      <c r="E37" s="112">
+      <c r="E37" s="93">
         <v>26</v>
       </c>
-      <c r="F37" s="113">
+      <c r="F37" s="94">
         <v>44298</v>
       </c>
-      <c r="G37" s="112" t="s">
+      <c r="G37" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="92"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="100"/>
     </row>
     <row r="38" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="156"/>
-      <c r="B38" s="112"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="168"/>
-      <c r="B39" s="168"/>
+      <c r="A39" s="158"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112">
+      <c r="D39" s="93"/>
+      <c r="E39" s="93">
         <v>26</v>
       </c>
-      <c r="F39" s="112">
+      <c r="F39" s="93">
         <v>44295</v>
       </c>
-      <c r="G39" s="112" t="s">
+      <c r="G39" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="92"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="100"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="168"/>
-      <c r="B40" s="168"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="100"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="168"/>
-      <c r="B41" s="168"/>
+      <c r="A41" s="158"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="87">
+      <c r="D41" s="91">
         <v>3.5</v>
       </c>
-      <c r="E41" s="87">
+      <c r="E41" s="91">
         <v>27</v>
       </c>
-      <c r="F41" s="122">
+      <c r="F41" s="90">
         <v>44299</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="92"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="100"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
     </row>
     <row r="42" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="168"/>
-      <c r="B42" s="168"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87">
+      <c r="D42" s="91"/>
+      <c r="E42" s="91">
         <v>27</v>
       </c>
-      <c r="F42" s="87">
+      <c r="F42" s="91">
         <v>44298</v>
       </c>
-      <c r="G42" s="87" t="s">
+      <c r="G42" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="92"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="100"/>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
     </row>
     <row r="43" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="168"/>
-      <c r="B43" s="168"/>
+      <c r="A43" s="158"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="92"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="100"/>
       <c r="J43" s="34"/>
       <c r="K43" s="34"/>
     </row>
     <row r="44" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="168"/>
-      <c r="B44" s="168"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87">
+      <c r="D44" s="91"/>
+      <c r="E44" s="91">
         <v>26</v>
       </c>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="92"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="100"/>
     </row>
     <row r="45" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="168"/>
-      <c r="B45" s="168"/>
+      <c r="A45" s="158"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="92"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="100"/>
     </row>
     <row r="46" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="168"/>
-      <c r="B46" s="168"/>
+      <c r="A46" s="158"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="D46" s="87">
+      <c r="D46" s="91">
         <v>3.5</v>
       </c>
-      <c r="E46" s="87">
+      <c r="E46" s="91">
         <v>28</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="90">
         <v>44300</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="92"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="100"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
     </row>
     <row r="47" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="168"/>
-      <c r="B47" s="168"/>
+      <c r="A47" s="158"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="92"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="100"/>
       <c r="J47" s="34"/>
       <c r="K47" s="34"/>
     </row>
     <row r="48" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="93" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87">
+      <c r="D48" s="91"/>
+      <c r="E48" s="91">
         <v>29</v>
       </c>
-      <c r="F48" s="87">
+      <c r="F48" s="91">
         <v>44300</v>
       </c>
-      <c r="G48" s="87" t="s">
+      <c r="G48" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="H48" s="112"/>
-      <c r="I48" s="92"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="100"/>
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="168"/>
-      <c r="B49" s="168"/>
+      <c r="A49" s="158"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="112">
+      <c r="D49" s="93">
         <v>3.5</v>
       </c>
-      <c r="E49" s="112">
+      <c r="E49" s="93">
         <v>29</v>
       </c>
-      <c r="F49" s="113">
+      <c r="F49" s="94">
         <v>44301</v>
       </c>
-      <c r="G49" s="114" t="s">
+      <c r="G49" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="H49" s="112"/>
-      <c r="I49" s="92"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="100"/>
     </row>
     <row r="50" spans="1:11" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="168"/>
-      <c r="B50" s="168"/>
+      <c r="A50" s="158"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="92"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="100"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
     </row>
     <row r="51" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
+      <c r="A51" s="158"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="92"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="168"/>
-      <c r="B52" s="168"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="92"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="100"/>
     </row>
     <row r="53" spans="1:11" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="168"/>
-      <c r="B53" s="168"/>
+      <c r="A53" s="158"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="92"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="1:11" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="152" t="s">
+      <c r="A54" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="152"/>
+      <c r="B54" s="129"/>
       <c r="C54" s="82" t="s">
         <v>231</v>
       </c>
@@ -5301,14 +5301,14 @@
       <c r="F54" s="23"/>
       <c r="G54" s="47"/>
       <c r="H54" s="22"/>
-      <c r="I54" s="118"/>
+      <c r="I54" s="105"/>
       <c r="J54" s="38"/>
     </row>
     <row r="56" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="152"/>
+      <c r="B56" s="129"/>
       <c r="C56" s="71" t="s">
         <v>215</v>
       </c>
@@ -5329,42 +5329,12 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I18:I33"/>
-    <mergeCell ref="I34:I54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H16:H24"/>
-    <mergeCell ref="H25:H53"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E41:E45"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="A1:I1"/>
@@ -5381,6 +5351,11 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="G8:G14"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="F41:F45"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="D30:D33"/>
@@ -5388,20 +5363,45 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I18:I33"/>
+    <mergeCell ref="I34:I54"/>
+    <mergeCell ref="H16:H24"/>
+    <mergeCell ref="H25:H53"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="F24:F26"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E41:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5432,40 +5432,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="50" t="s">
         <v>2</v>
       </c>
@@ -5494,10 +5494,10 @@
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -5525,10 +5525,10 @@
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="148"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="10">
         <v>2</v>
       </c>
@@ -5556,10 +5556,10 @@
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="148"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="10">
         <v>2</v>
       </c>
@@ -5584,18 +5584,18 @@
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="182" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
     </row>
     <row r="8" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5642,334 +5642,334 @@
       <c r="X8" s="8"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="184" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="93">
         <v>3.5</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="93">
         <v>30</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="94">
         <v>44305</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="185" t="s">
+      <c r="H9" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="112">
+      <c r="I9" s="93">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173"/>
-      <c r="B10" s="173"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="112"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="174"/>
-      <c r="B11" s="174"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="112"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="174"/>
-      <c r="B12" s="174"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="112"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
-      <c r="B13" s="174"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="112"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="174"/>
-      <c r="B14" s="174"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="112"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="174"/>
-      <c r="B15" s="174"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="112"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="174"/>
-      <c r="B16" s="174"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="112"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="93"/>
     </row>
     <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
-      <c r="B17" s="174"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="93">
         <v>3.5</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="93">
         <v>31</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="94">
         <v>44306</v>
       </c>
-      <c r="G17" s="114" t="s">
+      <c r="G17" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="186"/>
-      <c r="I17" s="112"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="174"/>
-      <c r="B18" s="174"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="112"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="93"/>
     </row>
     <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
-      <c r="B19" s="174"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="112"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
-      <c r="B20" s="174"/>
+      <c r="A20" s="186"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="112"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="93"/>
     </row>
     <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="174"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112">
+      <c r="D21" s="93"/>
+      <c r="E21" s="93">
         <v>29</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="112"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="174"/>
-      <c r="B22" s="174"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="186"/>
       <c r="C22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112">
+      <c r="D22" s="93"/>
+      <c r="E22" s="93">
         <v>32</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112" t="s">
+      <c r="F22" s="93"/>
+      <c r="G22" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="93"/>
     </row>
     <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
-      <c r="B23" s="174"/>
+      <c r="A23" s="186"/>
+      <c r="B23" s="186"/>
       <c r="C23" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="112"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="93"/>
     </row>
     <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="174"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="112"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="187" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="112">
+      <c r="D25" s="93">
         <v>3.5</v>
       </c>
-      <c r="E25" s="112">
+      <c r="E25" s="93">
         <v>32</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="94">
         <v>44307</v>
       </c>
-      <c r="G25" s="114" t="s">
+      <c r="G25" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="186"/>
-      <c r="I25" s="112"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="175"/>
-      <c r="B26" s="175"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="187"/>
       <c r="C26" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112">
+      <c r="D26" s="93"/>
+      <c r="E26" s="93">
         <v>30</v>
       </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="112"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="93"/>
     </row>
     <row r="27" spans="1:10" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="175"/>
-      <c r="B27" s="175"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112">
+      <c r="D27" s="93"/>
+      <c r="E27" s="93">
         <v>33</v>
       </c>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="185" t="s">
+      <c r="H27" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="112"/>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="1:10" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="175"/>
-      <c r="B28" s="175"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="187"/>
       <c r="C28" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="112"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="93"/>
     </row>
     <row r="29" spans="1:10" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="175"/>
-      <c r="B29" s="175"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="112"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="93"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="180"/>
-      <c r="B30" s="181"/>
+      <c r="A30" s="174"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="60" t="s">
         <v>208</v>
       </c>
@@ -5988,11 +5988,11 @@
       <c r="H30" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="I30" s="112"/>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
-      <c r="B31" s="183"/>
+      <c r="A31" s="176"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="60" t="s">
         <v>208</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="H31" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="112"/>
+      <c r="I31" s="93"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62"/>
@@ -6036,10 +6036,10 @@
       <c r="I33" s="66"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="184"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="19" t="s">
         <v>209</v>
       </c>
@@ -6070,10 +6070,10 @@
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="176" t="s">
+      <c r="A36" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="19" t="s">
         <v>210</v>
       </c>
@@ -6092,13 +6092,13 @@
       <c r="H36" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="88">
+      <c r="I36" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="178"/>
-      <c r="B37" s="179"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="19" t="s">
         <v>212</v>
       </c>
@@ -6117,10 +6117,25 @@
       <c r="H37" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="I37" s="88"/>
+      <c r="I37" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="G9:G16"/>
     <mergeCell ref="A36:B37"/>
     <mergeCell ref="I9:I31"/>
     <mergeCell ref="I36:I37"/>
@@ -6137,21 +6152,6 @@
     <mergeCell ref="H9:H21"/>
     <mergeCell ref="H22:H26"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G9:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6161,8 +6161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6174,12 +6174,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
@@ -6196,7 +6196,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="165" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -6210,7 +6210,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
@@ -6222,7 +6222,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="158"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
@@ -6234,23 +6234,23 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="159"/>
-      <c r="B6" s="195" t="s">
+      <c r="A6" s="167"/>
+      <c r="B6" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="194"/>
+      <c r="C6" s="197"/>
       <c r="D6" s="57">
         <v>44272</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="189"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="191"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="193"/>
     </row>
     <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="165" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -6264,7 +6264,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="158"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="42" t="s">
         <v>4</v>
       </c>
@@ -6276,7 +6276,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="158"/>
+      <c r="A10" s="166"/>
       <c r="B10" s="42" t="s">
         <v>6</v>
       </c>
@@ -6288,33 +6288,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="158"/>
-      <c r="B11" s="192" t="s">
+      <c r="A11" s="166"/>
+      <c r="B11" s="195" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="194"/>
+      <c r="C11" s="197"/>
       <c r="D11" s="70">
         <v>44285</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="159"/>
-      <c r="B12" s="192" t="s">
+      <c r="A12" s="167"/>
+      <c r="B12" s="195" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="70">
         <v>44285</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="189"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="191"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="193"/>
     </row>
     <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="165" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="158"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="42" t="s">
         <v>4</v>
       </c>
@@ -6340,7 +6340,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="158"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="42" t="s">
         <v>6</v>
       </c>
@@ -6352,7 +6352,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="158"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="42" t="s">
         <v>46</v>
       </c>
@@ -6364,7 +6364,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="158"/>
+      <c r="A18" s="166"/>
       <c r="B18" s="42" t="s">
         <v>163</v>
       </c>
@@ -6376,30 +6376,30 @@
       </c>
     </row>
     <row r="19" spans="1:4" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="158"/>
-      <c r="B19" s="192" t="s">
+      <c r="A19" s="166"/>
+      <c r="B19" s="195" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="194"/>
+      <c r="C19" s="197"/>
       <c r="D19" s="70">
         <v>44302</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="159"/>
-      <c r="B20" s="192" t="s">
+      <c r="A20" s="167"/>
+      <c r="B20" s="195" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="193"/>
+      <c r="C20" s="196"/>
       <c r="D20" s="70">
         <v>44305</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="189"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="191"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="193"/>
     </row>
     <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -6416,46 +6416,41 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="191"/>
+      <c r="A23" s="191"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="193"/>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="196" t="s">
+      <c r="A25" s="188" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
     </row>
     <row r="26" spans="1:4" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="197" t="s">
+      <c r="A26" s="189" t="s">
         <v>229</v>
       </c>
-      <c r="B26" s="198"/>
-      <c r="C26" s="198"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="57">
         <v>44313</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="197" t="s">
+      <c r="A27" s="189" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="198"/>
-      <c r="C27" s="198"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
       <c r="D27" s="57">
         <v>44315</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
@@ -6467,6 +6462,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6507,7 +6507,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="165" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -6524,7 +6524,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
@@ -6539,14 +6539,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="193"/>
     </row>
     <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="165" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="42" t="s">
@@ -6563,7 +6563,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="158"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="76" t="s">
         <v>223</v>
       </c>
@@ -6578,7 +6578,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="158"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6593,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="159"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="42" t="s">
         <v>6</v>
       </c>
@@ -6608,14 +6608,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="191"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="193"/>
     </row>
     <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="106" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="42" t="s">
@@ -6632,7 +6632,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="42" t="s">
         <v>4</v>
       </c>
